--- a/Marketing.Mvc/DadosApp/Relatorio/Base.xlsx
+++ b/Marketing.Mvc/DadosApp/Relatorio/Base.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJETO\Marketing\Marketing.Mvc\DadosApp\Relatorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3987E2-5726-4131-8668-5AA500DE1770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132A9E98-2873-4F67-A699-5E0C70DFB260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,25 +61,25 @@
     <t>Status de Entrega</t>
   </si>
   <si>
-    <t>CLICK LINK</t>
-  </si>
-  <si>
-    <t>UNDELIVERED</t>
-  </si>
-  <si>
-    <t>READ</t>
-  </si>
-  <si>
     <t>DELIVERED</t>
   </si>
   <si>
     <t>O status DELIVERED significa que a mensagem foi entregue com sucesso ao sistema ou canal do restaurante, mas ainda não necessariamente foi lida.</t>
   </si>
   <si>
+    <t>READ</t>
+  </si>
+  <si>
     <t>A mensagem foi aberta/lida no destino</t>
   </si>
   <si>
+    <t>CLICK LINK</t>
+  </si>
+  <si>
     <t>Abriu o link do Relatório</t>
+  </si>
+  <si>
+    <t>UNDELIVERED</t>
   </si>
   <si>
     <t>Devidos algun motivos: Número de telefone ou contato inválido
@@ -141,12 +141,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -157,8 +151,17 @@
       <name val="Avenir"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Avenir"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Avenir"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -187,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -255,33 +258,9 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -385,19 +364,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -459,125 +425,128 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,7 +560,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -614,21 +584,23 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>701040</xdr:colOff>
+      <xdr:colOff>704850</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1095375" cy="781050"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png" title="Imagem">
+        <xdr:cNvPr id="2" name="image1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
@@ -638,16 +610,15 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10721340" y="9525"/>
+          <a:off x="0" y="0"/>
           <a:ext cx="1095375" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
+    <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
@@ -853,7 +824,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z892"/>
+  <dimension ref="A1:Z893"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -870,3044 +841,3080 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:26" ht="24" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="36"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="21" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="36"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="37"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:26" ht="24" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-    </row>
-    <row r="8" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="19"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+    </row>
+    <row r="8" spans="1:26" ht="15" customHeight="1">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+    </row>
+    <row r="9" spans="1:26" ht="15" customHeight="1">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="20"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="22"/>
-    </row>
-    <row r="12" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A12" s="23" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="25"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="1:26" ht="18.75" customHeight="1">
+      <c r="A13" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="27">
+        <v>0</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="1:26" ht="18.75" customHeight="1">
+      <c r="A14" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="27">
+        <v>0</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="1:26" ht="18.75" customHeight="1">
+      <c r="A15" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="22"/>
-    </row>
-    <row r="13" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A13" s="23" t="s">
-        <v>15</v>
+      <c r="B15" s="27">
+        <v>0</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24" t="s">
+      <c r="C15" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="22"/>
-    </row>
-    <row r="14" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A14" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="28" t="s">
+      <c r="D15" s="33"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="26"/>
+    </row>
+    <row r="16" spans="1:26" ht="112.15" customHeight="1">
+      <c r="A16" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="22"/>
-    </row>
-    <row r="15" spans="1:26" ht="112.15" customHeight="1">
-      <c r="A15" s="23" t="s">
-        <v>14</v>
+      <c r="B16" s="27">
+        <v>5</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="28" t="s">
+      <c r="C16" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="22"/>
-    </row>
-    <row r="16" spans="1:26" ht="37.9" customHeight="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="28" t="s">
+      <c r="D16" s="33"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="26"/>
+    </row>
+    <row r="17" spans="1:6" ht="37.9" customHeight="1">
+      <c r="A17" s="34"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="22"/>
-    </row>
-    <row r="17" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D17" s="30"/>
-      <c r="F17" s="22"/>
-    </row>
-    <row r="18" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D18" s="30"/>
-      <c r="F18" s="22"/>
-    </row>
-    <row r="19" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D19" s="30"/>
-      <c r="F19" s="22"/>
-    </row>
-    <row r="20" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D20" s="30"/>
-      <c r="F20" s="22"/>
-    </row>
-    <row r="21" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D21" s="30"/>
-      <c r="F21" s="22"/>
-    </row>
-    <row r="22" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D22" s="30"/>
-      <c r="F22" s="22"/>
-    </row>
-    <row r="23" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D23" s="30"/>
-      <c r="F23" s="22"/>
-    </row>
-    <row r="24" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D24" s="30"/>
-      <c r="F24" s="22"/>
-    </row>
-    <row r="25" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D25" s="30"/>
-      <c r="F25" s="22"/>
-    </row>
-    <row r="26" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D26" s="30"/>
-      <c r="F26" s="22"/>
-    </row>
-    <row r="27" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D27" s="30"/>
-      <c r="F27" s="22"/>
-    </row>
-    <row r="28" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D28" s="30"/>
-      <c r="F28" s="22"/>
-    </row>
-    <row r="29" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D29" s="30"/>
-      <c r="F29" s="22"/>
-    </row>
-    <row r="30" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D30" s="30"/>
-      <c r="F30" s="22"/>
-    </row>
-    <row r="31" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D31" s="30"/>
-      <c r="F31" s="22"/>
-    </row>
-    <row r="32" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D32" s="30"/>
-      <c r="F32" s="22"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="26"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D18" s="44"/>
+      <c r="F18" s="26"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D19" s="44"/>
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D20" s="44"/>
+      <c r="F20" s="26"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D21" s="44"/>
+      <c r="F21" s="26"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D22" s="44"/>
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D23" s="44"/>
+      <c r="F23" s="26"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D24" s="44"/>
+      <c r="F24" s="26"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D25" s="44"/>
+      <c r="F25" s="26"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D26" s="44"/>
+      <c r="F26" s="26"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D27" s="44"/>
+      <c r="F27" s="26"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D28" s="44"/>
+      <c r="F28" s="26"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D29" s="44"/>
+      <c r="F29" s="26"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D30" s="44"/>
+      <c r="F30" s="26"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D31" s="44"/>
+      <c r="F31" s="26"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D32" s="44"/>
+      <c r="F32" s="26"/>
     </row>
     <row r="33" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D33" s="30"/>
-      <c r="F33" s="22"/>
+      <c r="D33" s="44"/>
+      <c r="F33" s="26"/>
     </row>
     <row r="34" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D34" s="30"/>
-      <c r="F34" s="22"/>
+      <c r="D34" s="44"/>
+      <c r="F34" s="26"/>
     </row>
     <row r="35" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D35" s="30"/>
-      <c r="F35" s="22"/>
+      <c r="D35" s="44"/>
+      <c r="F35" s="26"/>
     </row>
     <row r="36" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D36" s="30"/>
-      <c r="F36" s="22"/>
+      <c r="D36" s="44"/>
+      <c r="F36" s="26"/>
     </row>
     <row r="37" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D37" s="30"/>
-      <c r="F37" s="22"/>
+      <c r="D37" s="44"/>
+      <c r="F37" s="26"/>
     </row>
     <row r="38" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D38" s="30"/>
-      <c r="F38" s="22"/>
+      <c r="D38" s="44"/>
+      <c r="F38" s="26"/>
     </row>
     <row r="39" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D39" s="30"/>
-      <c r="F39" s="22"/>
+      <c r="D39" s="44"/>
+      <c r="F39" s="26"/>
     </row>
     <row r="40" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D40" s="30"/>
-      <c r="F40" s="22"/>
+      <c r="D40" s="44"/>
+      <c r="F40" s="26"/>
     </row>
     <row r="41" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D41" s="30"/>
-      <c r="F41" s="22"/>
+      <c r="D41" s="44"/>
+      <c r="F41" s="26"/>
     </row>
     <row r="42" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D42" s="30"/>
-      <c r="F42" s="22"/>
+      <c r="D42" s="44"/>
+      <c r="F42" s="26"/>
     </row>
     <row r="43" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D43" s="30"/>
-      <c r="F43" s="22"/>
+      <c r="D43" s="44"/>
+      <c r="F43" s="26"/>
     </row>
     <row r="44" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D44" s="30"/>
-      <c r="F44" s="22"/>
+      <c r="D44" s="44"/>
+      <c r="F44" s="26"/>
     </row>
     <row r="45" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D45" s="30"/>
-      <c r="F45" s="22"/>
+      <c r="D45" s="44"/>
+      <c r="F45" s="26"/>
     </row>
     <row r="46" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D46" s="30"/>
-      <c r="F46" s="22"/>
+      <c r="D46" s="44"/>
+      <c r="F46" s="26"/>
     </row>
     <row r="47" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D47" s="30"/>
-      <c r="F47" s="22"/>
+      <c r="D47" s="44"/>
+      <c r="F47" s="26"/>
     </row>
     <row r="48" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D48" s="30"/>
-      <c r="F48" s="22"/>
+      <c r="D48" s="44"/>
+      <c r="F48" s="26"/>
     </row>
     <row r="49" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D49" s="30"/>
-      <c r="F49" s="22"/>
+      <c r="D49" s="44"/>
+      <c r="F49" s="26"/>
     </row>
     <row r="50" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D50" s="30"/>
-      <c r="F50" s="22"/>
+      <c r="D50" s="44"/>
+      <c r="F50" s="26"/>
     </row>
     <row r="51" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D51" s="30"/>
-      <c r="F51" s="22"/>
+      <c r="D51" s="44"/>
+      <c r="F51" s="26"/>
     </row>
     <row r="52" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D52" s="30"/>
-      <c r="F52" s="22"/>
+      <c r="D52" s="44"/>
+      <c r="F52" s="26"/>
     </row>
     <row r="53" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D53" s="30"/>
-      <c r="F53" s="22"/>
+      <c r="D53" s="44"/>
+      <c r="F53" s="26"/>
     </row>
     <row r="54" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D54" s="30"/>
-      <c r="F54" s="22"/>
+      <c r="D54" s="44"/>
+      <c r="F54" s="26"/>
     </row>
     <row r="55" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D55" s="30"/>
-      <c r="F55" s="22"/>
+      <c r="D55" s="44"/>
+      <c r="F55" s="26"/>
     </row>
     <row r="56" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D56" s="30"/>
-      <c r="F56" s="22"/>
+      <c r="D56" s="44"/>
+      <c r="F56" s="26"/>
     </row>
     <row r="57" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D57" s="30"/>
-      <c r="F57" s="22"/>
+      <c r="D57" s="44"/>
+      <c r="F57" s="26"/>
     </row>
     <row r="58" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D58" s="30"/>
-      <c r="F58" s="22"/>
+      <c r="D58" s="44"/>
+      <c r="F58" s="26"/>
     </row>
     <row r="59" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D59" s="30"/>
-      <c r="F59" s="22"/>
+      <c r="D59" s="44"/>
+      <c r="F59" s="26"/>
     </row>
     <row r="60" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D60" s="30"/>
-      <c r="F60" s="22"/>
+      <c r="D60" s="44"/>
+      <c r="F60" s="26"/>
     </row>
     <row r="61" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D61" s="30"/>
-      <c r="F61" s="22"/>
+      <c r="D61" s="44"/>
+      <c r="F61" s="26"/>
     </row>
     <row r="62" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D62" s="30"/>
-      <c r="F62" s="22"/>
+      <c r="D62" s="44"/>
+      <c r="F62" s="26"/>
     </row>
     <row r="63" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D63" s="30"/>
-      <c r="F63" s="22"/>
+      <c r="D63" s="44"/>
+      <c r="F63" s="26"/>
     </row>
     <row r="64" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D64" s="30"/>
-      <c r="F64" s="22"/>
+      <c r="D64" s="44"/>
+      <c r="F64" s="26"/>
     </row>
     <row r="65" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D65" s="30"/>
-      <c r="F65" s="22"/>
+      <c r="D65" s="44"/>
+      <c r="F65" s="26"/>
     </row>
     <row r="66" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D66" s="30"/>
-      <c r="F66" s="22"/>
+      <c r="D66" s="44"/>
+      <c r="F66" s="26"/>
     </row>
     <row r="67" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D67" s="30"/>
-      <c r="F67" s="22"/>
+      <c r="D67" s="44"/>
+      <c r="F67" s="26"/>
     </row>
     <row r="68" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D68" s="30"/>
-      <c r="F68" s="22"/>
+      <c r="D68" s="44"/>
+      <c r="F68" s="26"/>
     </row>
     <row r="69" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D69" s="30"/>
-      <c r="F69" s="22"/>
+      <c r="D69" s="44"/>
+      <c r="F69" s="26"/>
     </row>
     <row r="70" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D70" s="30"/>
-      <c r="F70" s="22"/>
+      <c r="D70" s="44"/>
+      <c r="F70" s="26"/>
     </row>
     <row r="71" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D71" s="30"/>
-      <c r="F71" s="22"/>
+      <c r="D71" s="44"/>
+      <c r="F71" s="26"/>
     </row>
     <row r="72" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D72" s="30"/>
-      <c r="F72" s="22"/>
+      <c r="D72" s="44"/>
+      <c r="F72" s="26"/>
     </row>
     <row r="73" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D73" s="30"/>
-      <c r="F73" s="22"/>
+      <c r="D73" s="44"/>
+      <c r="F73" s="26"/>
     </row>
     <row r="74" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D74" s="30"/>
-      <c r="F74" s="22"/>
+      <c r="D74" s="44"/>
+      <c r="F74" s="26"/>
     </row>
     <row r="75" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D75" s="30"/>
-      <c r="F75" s="22"/>
+      <c r="D75" s="44"/>
+      <c r="F75" s="26"/>
     </row>
     <row r="76" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D76" s="30"/>
-      <c r="F76" s="22"/>
+      <c r="D76" s="44"/>
+      <c r="F76" s="26"/>
     </row>
     <row r="77" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D77" s="30"/>
-      <c r="F77" s="22"/>
+      <c r="D77" s="44"/>
+      <c r="F77" s="26"/>
     </row>
     <row r="78" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D78" s="30"/>
-      <c r="F78" s="22"/>
+      <c r="D78" s="44"/>
+      <c r="F78" s="26"/>
     </row>
     <row r="79" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D79" s="30"/>
-      <c r="F79" s="22"/>
+      <c r="D79" s="44"/>
+      <c r="F79" s="26"/>
     </row>
     <row r="80" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D80" s="30"/>
-      <c r="F80" s="22"/>
+      <c r="D80" s="44"/>
+      <c r="F80" s="26"/>
     </row>
     <row r="81" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D81" s="30"/>
-      <c r="F81" s="22"/>
+      <c r="D81" s="44"/>
+      <c r="F81" s="26"/>
     </row>
     <row r="82" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D82" s="30"/>
-      <c r="F82" s="22"/>
+      <c r="D82" s="44"/>
+      <c r="F82" s="26"/>
     </row>
     <row r="83" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D83" s="30"/>
-      <c r="F83" s="22"/>
+      <c r="D83" s="44"/>
+      <c r="F83" s="26"/>
     </row>
     <row r="84" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D84" s="30"/>
-      <c r="F84" s="22"/>
+      <c r="D84" s="44"/>
+      <c r="F84" s="26"/>
     </row>
     <row r="85" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D85" s="30"/>
-      <c r="F85" s="22"/>
+      <c r="D85" s="44"/>
+      <c r="F85" s="26"/>
     </row>
     <row r="86" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D86" s="30"/>
-      <c r="F86" s="22"/>
+      <c r="D86" s="44"/>
+      <c r="F86" s="26"/>
     </row>
     <row r="87" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D87" s="30"/>
-      <c r="F87" s="22"/>
+      <c r="D87" s="44"/>
+      <c r="F87" s="26"/>
     </row>
     <row r="88" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D88" s="30"/>
-      <c r="F88" s="22"/>
+      <c r="D88" s="44"/>
+      <c r="F88" s="26"/>
     </row>
     <row r="89" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D89" s="30"/>
-      <c r="F89" s="22"/>
+      <c r="D89" s="44"/>
+      <c r="F89" s="26"/>
     </row>
     <row r="90" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D90" s="30"/>
-      <c r="F90" s="22"/>
+      <c r="D90" s="44"/>
+      <c r="F90" s="26"/>
     </row>
     <row r="91" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D91" s="30"/>
-      <c r="F91" s="22"/>
+      <c r="D91" s="44"/>
+      <c r="F91" s="26"/>
     </row>
     <row r="92" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D92" s="30"/>
-      <c r="F92" s="22"/>
+      <c r="D92" s="44"/>
+      <c r="F92" s="26"/>
     </row>
     <row r="93" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D93" s="30"/>
-      <c r="F93" s="22"/>
+      <c r="D93" s="44"/>
+      <c r="F93" s="26"/>
     </row>
     <row r="94" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D94" s="30"/>
-      <c r="F94" s="22"/>
+      <c r="D94" s="44"/>
+      <c r="F94" s="26"/>
     </row>
     <row r="95" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D95" s="30"/>
-      <c r="F95" s="22"/>
+      <c r="D95" s="44"/>
+      <c r="F95" s="26"/>
     </row>
     <row r="96" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D96" s="30"/>
-      <c r="F96" s="22"/>
+      <c r="D96" s="44"/>
+      <c r="F96" s="26"/>
     </row>
     <row r="97" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D97" s="30"/>
-      <c r="F97" s="22"/>
+      <c r="D97" s="44"/>
+      <c r="F97" s="26"/>
     </row>
     <row r="98" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D98" s="30"/>
-      <c r="F98" s="22"/>
+      <c r="D98" s="44"/>
+      <c r="F98" s="26"/>
     </row>
     <row r="99" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D99" s="30"/>
-      <c r="F99" s="22"/>
+      <c r="D99" s="44"/>
+      <c r="F99" s="26"/>
     </row>
     <row r="100" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D100" s="30"/>
-      <c r="F100" s="22"/>
+      <c r="D100" s="44"/>
+      <c r="F100" s="26"/>
     </row>
     <row r="101" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D101" s="30"/>
-      <c r="F101" s="22"/>
+      <c r="D101" s="44"/>
+      <c r="F101" s="26"/>
     </row>
     <row r="102" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D102" s="30"/>
-      <c r="F102" s="22"/>
+      <c r="D102" s="44"/>
+      <c r="F102" s="26"/>
     </row>
     <row r="103" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D103" s="30"/>
-      <c r="F103" s="22"/>
+      <c r="D103" s="44"/>
+      <c r="F103" s="26"/>
     </row>
     <row r="104" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D104" s="30"/>
-      <c r="F104" s="22"/>
+      <c r="D104" s="44"/>
+      <c r="F104" s="26"/>
     </row>
     <row r="105" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D105" s="30"/>
-      <c r="F105" s="22"/>
+      <c r="D105" s="44"/>
+      <c r="F105" s="26"/>
     </row>
     <row r="106" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D106" s="30"/>
-      <c r="F106" s="22"/>
+      <c r="D106" s="44"/>
+      <c r="F106" s="26"/>
     </row>
     <row r="107" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D107" s="30"/>
-      <c r="F107" s="22"/>
+      <c r="D107" s="44"/>
+      <c r="F107" s="26"/>
     </row>
     <row r="108" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D108" s="30"/>
-      <c r="F108" s="22"/>
+      <c r="D108" s="44"/>
+      <c r="F108" s="26"/>
     </row>
     <row r="109" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D109" s="30"/>
-      <c r="F109" s="22"/>
+      <c r="D109" s="44"/>
+      <c r="F109" s="26"/>
     </row>
     <row r="110" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D110" s="30"/>
-      <c r="F110" s="22"/>
+      <c r="D110" s="44"/>
+      <c r="F110" s="26"/>
     </row>
     <row r="111" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D111" s="30"/>
-      <c r="F111" s="22"/>
+      <c r="D111" s="44"/>
+      <c r="F111" s="26"/>
     </row>
     <row r="112" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D112" s="30"/>
-      <c r="F112" s="22"/>
+      <c r="D112" s="44"/>
+      <c r="F112" s="26"/>
     </row>
     <row r="113" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D113" s="30"/>
-      <c r="F113" s="22"/>
+      <c r="D113" s="44"/>
+      <c r="F113" s="26"/>
     </row>
     <row r="114" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D114" s="30"/>
-      <c r="F114" s="22"/>
+      <c r="D114" s="44"/>
+      <c r="F114" s="26"/>
     </row>
     <row r="115" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D115" s="30"/>
-      <c r="F115" s="22"/>
+      <c r="D115" s="44"/>
+      <c r="F115" s="26"/>
     </row>
     <row r="116" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D116" s="30"/>
-      <c r="F116" s="22"/>
+      <c r="D116" s="44"/>
+      <c r="F116" s="26"/>
     </row>
     <row r="117" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D117" s="30"/>
-      <c r="F117" s="22"/>
+      <c r="D117" s="44"/>
+      <c r="F117" s="26"/>
     </row>
     <row r="118" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D118" s="30"/>
-      <c r="F118" s="22"/>
+      <c r="D118" s="44"/>
+      <c r="F118" s="26"/>
     </row>
     <row r="119" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D119" s="30"/>
-      <c r="F119" s="22"/>
+      <c r="D119" s="44"/>
+      <c r="F119" s="26"/>
     </row>
     <row r="120" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D120" s="30"/>
-      <c r="F120" s="22"/>
+      <c r="D120" s="44"/>
+      <c r="F120" s="26"/>
     </row>
     <row r="121" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D121" s="30"/>
-      <c r="F121" s="22"/>
+      <c r="D121" s="44"/>
+      <c r="F121" s="26"/>
     </row>
     <row r="122" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D122" s="30"/>
-      <c r="F122" s="22"/>
+      <c r="D122" s="44"/>
+      <c r="F122" s="26"/>
     </row>
     <row r="123" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D123" s="30"/>
-      <c r="F123" s="22"/>
+      <c r="D123" s="44"/>
+      <c r="F123" s="26"/>
     </row>
     <row r="124" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D124" s="30"/>
-      <c r="F124" s="22"/>
+      <c r="D124" s="44"/>
+      <c r="F124" s="26"/>
     </row>
     <row r="125" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D125" s="30"/>
-      <c r="F125" s="22"/>
+      <c r="D125" s="44"/>
+      <c r="F125" s="26"/>
     </row>
     <row r="126" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D126" s="30"/>
-      <c r="F126" s="22"/>
+      <c r="D126" s="44"/>
+      <c r="F126" s="26"/>
     </row>
     <row r="127" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D127" s="30"/>
-      <c r="F127" s="22"/>
+      <c r="D127" s="44"/>
+      <c r="F127" s="26"/>
     </row>
     <row r="128" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D128" s="30"/>
-      <c r="F128" s="22"/>
+      <c r="D128" s="44"/>
+      <c r="F128" s="26"/>
     </row>
     <row r="129" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D129" s="30"/>
-      <c r="F129" s="22"/>
+      <c r="D129" s="44"/>
+      <c r="F129" s="26"/>
     </row>
     <row r="130" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D130" s="30"/>
-      <c r="F130" s="22"/>
+      <c r="D130" s="44"/>
+      <c r="F130" s="26"/>
     </row>
     <row r="131" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D131" s="30"/>
-      <c r="F131" s="22"/>
+      <c r="D131" s="44"/>
+      <c r="F131" s="26"/>
     </row>
     <row r="132" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D132" s="30"/>
-      <c r="F132" s="22"/>
+      <c r="D132" s="44"/>
+      <c r="F132" s="26"/>
     </row>
     <row r="133" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D133" s="30"/>
-      <c r="F133" s="22"/>
+      <c r="D133" s="44"/>
+      <c r="F133" s="26"/>
     </row>
     <row r="134" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D134" s="30"/>
-      <c r="F134" s="22"/>
+      <c r="D134" s="44"/>
+      <c r="F134" s="26"/>
     </row>
     <row r="135" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D135" s="30"/>
-      <c r="F135" s="22"/>
+      <c r="D135" s="44"/>
+      <c r="F135" s="26"/>
     </row>
     <row r="136" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D136" s="30"/>
-      <c r="F136" s="22"/>
+      <c r="D136" s="44"/>
+      <c r="F136" s="26"/>
     </row>
     <row r="137" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D137" s="30"/>
-      <c r="F137" s="22"/>
+      <c r="D137" s="44"/>
+      <c r="F137" s="26"/>
     </row>
     <row r="138" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D138" s="30"/>
-      <c r="F138" s="22"/>
+      <c r="D138" s="44"/>
+      <c r="F138" s="26"/>
     </row>
     <row r="139" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D139" s="30"/>
-      <c r="F139" s="22"/>
+      <c r="D139" s="44"/>
+      <c r="F139" s="26"/>
     </row>
     <row r="140" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D140" s="30"/>
-      <c r="F140" s="22"/>
+      <c r="D140" s="44"/>
+      <c r="F140" s="26"/>
     </row>
     <row r="141" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D141" s="30"/>
-      <c r="F141" s="22"/>
+      <c r="D141" s="44"/>
+      <c r="F141" s="26"/>
     </row>
     <row r="142" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D142" s="30"/>
-      <c r="F142" s="22"/>
+      <c r="D142" s="44"/>
+      <c r="F142" s="26"/>
     </row>
     <row r="143" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D143" s="30"/>
-      <c r="F143" s="22"/>
+      <c r="D143" s="44"/>
+      <c r="F143" s="26"/>
     </row>
     <row r="144" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D144" s="30"/>
-      <c r="F144" s="22"/>
+      <c r="D144" s="44"/>
+      <c r="F144" s="26"/>
     </row>
     <row r="145" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D145" s="30"/>
-      <c r="F145" s="22"/>
+      <c r="D145" s="44"/>
+      <c r="F145" s="26"/>
     </row>
     <row r="146" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D146" s="30"/>
-      <c r="F146" s="22"/>
+      <c r="D146" s="44"/>
+      <c r="F146" s="26"/>
     </row>
     <row r="147" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D147" s="30"/>
-      <c r="F147" s="22"/>
+      <c r="D147" s="44"/>
+      <c r="F147" s="26"/>
     </row>
     <row r="148" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D148" s="30"/>
-      <c r="F148" s="22"/>
+      <c r="D148" s="44"/>
+      <c r="F148" s="26"/>
     </row>
     <row r="149" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D149" s="30"/>
-      <c r="F149" s="22"/>
+      <c r="D149" s="44"/>
+      <c r="F149" s="26"/>
     </row>
     <row r="150" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D150" s="30"/>
-      <c r="F150" s="22"/>
+      <c r="D150" s="44"/>
+      <c r="F150" s="26"/>
     </row>
     <row r="151" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D151" s="30"/>
-      <c r="F151" s="22"/>
+      <c r="D151" s="44"/>
+      <c r="F151" s="26"/>
     </row>
     <row r="152" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D152" s="30"/>
-      <c r="F152" s="22"/>
+      <c r="D152" s="44"/>
+      <c r="F152" s="26"/>
     </row>
     <row r="153" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D153" s="30"/>
-      <c r="F153" s="22"/>
+      <c r="D153" s="44"/>
+      <c r="F153" s="26"/>
     </row>
     <row r="154" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D154" s="30"/>
-      <c r="F154" s="22"/>
+      <c r="D154" s="44"/>
+      <c r="F154" s="26"/>
     </row>
     <row r="155" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D155" s="30"/>
-      <c r="F155" s="22"/>
+      <c r="D155" s="44"/>
+      <c r="F155" s="26"/>
     </row>
     <row r="156" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D156" s="30"/>
-      <c r="F156" s="22"/>
+      <c r="D156" s="44"/>
+      <c r="F156" s="26"/>
     </row>
     <row r="157" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D157" s="30"/>
-      <c r="F157" s="22"/>
+      <c r="D157" s="44"/>
+      <c r="F157" s="26"/>
     </row>
     <row r="158" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D158" s="30"/>
-      <c r="F158" s="22"/>
+      <c r="D158" s="44"/>
+      <c r="F158" s="26"/>
     </row>
     <row r="159" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D159" s="30"/>
-      <c r="F159" s="22"/>
+      <c r="D159" s="44"/>
+      <c r="F159" s="26"/>
     </row>
     <row r="160" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D160" s="30"/>
-      <c r="F160" s="22"/>
+      <c r="D160" s="44"/>
+      <c r="F160" s="26"/>
     </row>
     <row r="161" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D161" s="30"/>
-      <c r="F161" s="22"/>
+      <c r="D161" s="44"/>
+      <c r="F161" s="26"/>
     </row>
     <row r="162" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D162" s="30"/>
-      <c r="F162" s="22"/>
+      <c r="D162" s="44"/>
+      <c r="F162" s="26"/>
     </row>
     <row r="163" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D163" s="30"/>
-      <c r="F163" s="22"/>
+      <c r="D163" s="44"/>
+      <c r="F163" s="26"/>
     </row>
     <row r="164" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D164" s="30"/>
-      <c r="F164" s="22"/>
+      <c r="D164" s="44"/>
+      <c r="F164" s="26"/>
     </row>
     <row r="165" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D165" s="30"/>
-      <c r="F165" s="22"/>
+      <c r="D165" s="44"/>
+      <c r="F165" s="26"/>
     </row>
     <row r="166" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D166" s="30"/>
-      <c r="F166" s="22"/>
+      <c r="D166" s="44"/>
+      <c r="F166" s="26"/>
     </row>
     <row r="167" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D167" s="30"/>
-      <c r="F167" s="22"/>
+      <c r="D167" s="44"/>
+      <c r="F167" s="26"/>
     </row>
     <row r="168" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D168" s="30"/>
-      <c r="F168" s="22"/>
+      <c r="D168" s="44"/>
+      <c r="F168" s="26"/>
     </row>
     <row r="169" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D169" s="30"/>
-      <c r="F169" s="22"/>
+      <c r="D169" s="44"/>
+      <c r="F169" s="26"/>
     </row>
     <row r="170" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D170" s="30"/>
-      <c r="F170" s="22"/>
+      <c r="D170" s="44"/>
+      <c r="F170" s="26"/>
     </row>
     <row r="171" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D171" s="30"/>
-      <c r="F171" s="22"/>
+      <c r="D171" s="44"/>
+      <c r="F171" s="26"/>
     </row>
     <row r="172" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D172" s="30"/>
-      <c r="F172" s="22"/>
+      <c r="D172" s="44"/>
+      <c r="F172" s="26"/>
     </row>
     <row r="173" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D173" s="30"/>
-      <c r="F173" s="22"/>
+      <c r="D173" s="44"/>
+      <c r="F173" s="26"/>
     </row>
     <row r="174" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D174" s="30"/>
-      <c r="F174" s="22"/>
+      <c r="D174" s="44"/>
+      <c r="F174" s="26"/>
     </row>
     <row r="175" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D175" s="30"/>
-      <c r="F175" s="22"/>
+      <c r="D175" s="44"/>
+      <c r="F175" s="26"/>
     </row>
     <row r="176" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D176" s="30"/>
-      <c r="F176" s="22"/>
+      <c r="D176" s="44"/>
+      <c r="F176" s="26"/>
     </row>
     <row r="177" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D177" s="30"/>
-      <c r="F177" s="22"/>
+      <c r="D177" s="44"/>
+      <c r="F177" s="26"/>
     </row>
     <row r="178" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D178" s="30"/>
-      <c r="F178" s="22"/>
+      <c r="D178" s="44"/>
+      <c r="F178" s="26"/>
     </row>
     <row r="179" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D179" s="30"/>
-      <c r="F179" s="22"/>
+      <c r="D179" s="44"/>
+      <c r="F179" s="26"/>
     </row>
     <row r="180" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D180" s="30"/>
-      <c r="F180" s="22"/>
+      <c r="D180" s="44"/>
+      <c r="F180" s="26"/>
     </row>
     <row r="181" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D181" s="30"/>
-      <c r="F181" s="22"/>
+      <c r="D181" s="44"/>
+      <c r="F181" s="26"/>
     </row>
     <row r="182" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D182" s="30"/>
-      <c r="F182" s="22"/>
+      <c r="D182" s="44"/>
+      <c r="F182" s="26"/>
     </row>
     <row r="183" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D183" s="30"/>
-      <c r="F183" s="22"/>
+      <c r="D183" s="44"/>
+      <c r="F183" s="26"/>
     </row>
     <row r="184" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D184" s="30"/>
-      <c r="F184" s="22"/>
+      <c r="D184" s="44"/>
+      <c r="F184" s="26"/>
     </row>
     <row r="185" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D185" s="30"/>
-      <c r="F185" s="22"/>
+      <c r="D185" s="44"/>
+      <c r="F185" s="26"/>
     </row>
     <row r="186" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D186" s="30"/>
-      <c r="F186" s="22"/>
+      <c r="D186" s="44"/>
+      <c r="F186" s="26"/>
     </row>
     <row r="187" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D187" s="30"/>
-      <c r="F187" s="22"/>
+      <c r="D187" s="44"/>
+      <c r="F187" s="26"/>
     </row>
     <row r="188" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D188" s="30"/>
-      <c r="F188" s="22"/>
+      <c r="D188" s="44"/>
+      <c r="F188" s="26"/>
     </row>
     <row r="189" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D189" s="30"/>
-      <c r="F189" s="22"/>
+      <c r="D189" s="44"/>
+      <c r="F189" s="26"/>
     </row>
     <row r="190" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D190" s="30"/>
-      <c r="F190" s="22"/>
+      <c r="D190" s="44"/>
+      <c r="F190" s="26"/>
     </row>
     <row r="191" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D191" s="30"/>
-      <c r="F191" s="22"/>
+      <c r="D191" s="44"/>
+      <c r="F191" s="26"/>
     </row>
     <row r="192" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D192" s="30"/>
-      <c r="F192" s="22"/>
+      <c r="D192" s="44"/>
+      <c r="F192" s="26"/>
     </row>
     <row r="193" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D193" s="30"/>
-      <c r="F193" s="22"/>
+      <c r="D193" s="44"/>
+      <c r="F193" s="26"/>
     </row>
     <row r="194" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D194" s="30"/>
-      <c r="F194" s="22"/>
+      <c r="D194" s="44"/>
+      <c r="F194" s="26"/>
     </row>
     <row r="195" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D195" s="30"/>
-      <c r="F195" s="22"/>
+      <c r="D195" s="44"/>
+      <c r="F195" s="26"/>
     </row>
     <row r="196" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D196" s="30"/>
-      <c r="F196" s="22"/>
+      <c r="D196" s="44"/>
+      <c r="F196" s="26"/>
     </row>
     <row r="197" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D197" s="30"/>
-      <c r="F197" s="22"/>
+      <c r="D197" s="44"/>
+      <c r="F197" s="26"/>
     </row>
     <row r="198" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D198" s="30"/>
-      <c r="F198" s="22"/>
+      <c r="D198" s="44"/>
+      <c r="F198" s="26"/>
     </row>
     <row r="199" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D199" s="30"/>
-      <c r="F199" s="22"/>
+      <c r="D199" s="44"/>
+      <c r="F199" s="26"/>
     </row>
     <row r="200" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D200" s="30"/>
-      <c r="F200" s="22"/>
+      <c r="D200" s="44"/>
+      <c r="F200" s="26"/>
     </row>
     <row r="201" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D201" s="30"/>
-      <c r="F201" s="22"/>
+      <c r="D201" s="44"/>
+      <c r="F201" s="26"/>
     </row>
     <row r="202" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D202" s="30"/>
-      <c r="F202" s="22"/>
+      <c r="D202" s="44"/>
+      <c r="F202" s="26"/>
     </row>
     <row r="203" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D203" s="30"/>
-      <c r="F203" s="22"/>
+      <c r="D203" s="44"/>
+      <c r="F203" s="26"/>
     </row>
     <row r="204" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D204" s="30"/>
-      <c r="F204" s="22"/>
+      <c r="D204" s="44"/>
+      <c r="F204" s="26"/>
     </row>
     <row r="205" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D205" s="30"/>
-      <c r="F205" s="22"/>
+      <c r="D205" s="44"/>
+      <c r="F205" s="26"/>
     </row>
     <row r="206" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D206" s="30"/>
-      <c r="F206" s="22"/>
+      <c r="D206" s="44"/>
+      <c r="F206" s="26"/>
     </row>
     <row r="207" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D207" s="30"/>
-      <c r="F207" s="22"/>
+      <c r="D207" s="44"/>
+      <c r="F207" s="26"/>
     </row>
     <row r="208" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D208" s="30"/>
-      <c r="F208" s="22"/>
+      <c r="D208" s="44"/>
+      <c r="F208" s="26"/>
     </row>
     <row r="209" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D209" s="30"/>
-      <c r="F209" s="22"/>
+      <c r="D209" s="44"/>
+      <c r="F209" s="26"/>
     </row>
     <row r="210" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D210" s="30"/>
-      <c r="F210" s="22"/>
+      <c r="D210" s="44"/>
+      <c r="F210" s="26"/>
     </row>
     <row r="211" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D211" s="30"/>
-      <c r="F211" s="22"/>
+      <c r="D211" s="44"/>
+      <c r="F211" s="26"/>
     </row>
     <row r="212" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D212" s="30"/>
-      <c r="F212" s="22"/>
+      <c r="D212" s="44"/>
+      <c r="F212" s="26"/>
     </row>
     <row r="213" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D213" s="30"/>
-      <c r="F213" s="22"/>
+      <c r="D213" s="44"/>
+      <c r="F213" s="26"/>
     </row>
     <row r="214" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D214" s="30"/>
-      <c r="F214" s="22"/>
+      <c r="D214" s="44"/>
+      <c r="F214" s="26"/>
     </row>
     <row r="215" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D215" s="30"/>
-      <c r="F215" s="22"/>
+      <c r="D215" s="44"/>
+      <c r="F215" s="26"/>
     </row>
     <row r="216" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D216" s="30"/>
-      <c r="F216" s="22"/>
+      <c r="D216" s="44"/>
+      <c r="F216" s="26"/>
     </row>
     <row r="217" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D217" s="30"/>
+      <c r="D217" s="44"/>
+      <c r="F217" s="26"/>
     </row>
     <row r="218" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D218" s="30"/>
+      <c r="D218" s="44"/>
     </row>
     <row r="219" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D219" s="30"/>
+      <c r="D219" s="44"/>
     </row>
     <row r="220" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D220" s="30"/>
+      <c r="D220" s="44"/>
     </row>
     <row r="221" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D221" s="30"/>
+      <c r="D221" s="44"/>
     </row>
     <row r="222" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D222" s="30"/>
+      <c r="D222" s="44"/>
     </row>
     <row r="223" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D223" s="30"/>
+      <c r="D223" s="44"/>
     </row>
     <row r="224" spans="4:6" ht="15.75" customHeight="1">
-      <c r="D224" s="30"/>
+      <c r="D224" s="44"/>
     </row>
     <row r="225" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D225" s="30"/>
+      <c r="D225" s="44"/>
     </row>
     <row r="226" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D226" s="30"/>
+      <c r="D226" s="44"/>
     </row>
     <row r="227" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D227" s="30"/>
+      <c r="D227" s="44"/>
     </row>
     <row r="228" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D228" s="30"/>
+      <c r="D228" s="44"/>
     </row>
     <row r="229" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D229" s="30"/>
+      <c r="D229" s="44"/>
     </row>
     <row r="230" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D230" s="30"/>
+      <c r="D230" s="44"/>
     </row>
     <row r="231" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D231" s="30"/>
+      <c r="D231" s="44"/>
     </row>
     <row r="232" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D232" s="30"/>
+      <c r="D232" s="44"/>
     </row>
     <row r="233" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D233" s="30"/>
+      <c r="D233" s="44"/>
     </row>
     <row r="234" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D234" s="30"/>
+      <c r="D234" s="44"/>
     </row>
     <row r="235" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D235" s="30"/>
+      <c r="D235" s="44"/>
     </row>
     <row r="236" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D236" s="30"/>
+      <c r="D236" s="44"/>
     </row>
     <row r="237" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D237" s="30"/>
+      <c r="D237" s="44"/>
     </row>
     <row r="238" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D238" s="30"/>
+      <c r="D238" s="44"/>
     </row>
     <row r="239" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D239" s="30"/>
+      <c r="D239" s="44"/>
     </row>
     <row r="240" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D240" s="30"/>
+      <c r="D240" s="44"/>
     </row>
     <row r="241" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D241" s="30"/>
+      <c r="D241" s="44"/>
     </row>
     <row r="242" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D242" s="30"/>
+      <c r="D242" s="44"/>
     </row>
     <row r="243" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D243" s="30"/>
+      <c r="D243" s="44"/>
     </row>
     <row r="244" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D244" s="30"/>
+      <c r="D244" s="44"/>
     </row>
     <row r="245" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D245" s="30"/>
+      <c r="D245" s="44"/>
     </row>
     <row r="246" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D246" s="30"/>
+      <c r="D246" s="44"/>
     </row>
     <row r="247" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D247" s="30"/>
+      <c r="D247" s="44"/>
     </row>
     <row r="248" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D248" s="30"/>
+      <c r="D248" s="44"/>
     </row>
     <row r="249" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D249" s="30"/>
+      <c r="D249" s="44"/>
     </row>
     <row r="250" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D250" s="30"/>
+      <c r="D250" s="44"/>
     </row>
     <row r="251" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D251" s="30"/>
+      <c r="D251" s="44"/>
     </row>
     <row r="252" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D252" s="30"/>
+      <c r="D252" s="44"/>
     </row>
     <row r="253" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D253" s="30"/>
+      <c r="D253" s="44"/>
     </row>
     <row r="254" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D254" s="30"/>
+      <c r="D254" s="44"/>
     </row>
     <row r="255" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D255" s="30"/>
+      <c r="D255" s="44"/>
     </row>
     <row r="256" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D256" s="30"/>
+      <c r="D256" s="44"/>
     </row>
     <row r="257" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D257" s="30"/>
+      <c r="D257" s="44"/>
     </row>
     <row r="258" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D258" s="30"/>
+      <c r="D258" s="44"/>
     </row>
     <row r="259" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D259" s="30"/>
+      <c r="D259" s="44"/>
     </row>
     <row r="260" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D260" s="30"/>
+      <c r="D260" s="44"/>
     </row>
     <row r="261" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D261" s="30"/>
+      <c r="D261" s="44"/>
     </row>
     <row r="262" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D262" s="30"/>
+      <c r="D262" s="44"/>
     </row>
     <row r="263" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D263" s="30"/>
+      <c r="D263" s="44"/>
     </row>
     <row r="264" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D264" s="30"/>
+      <c r="D264" s="44"/>
     </row>
     <row r="265" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D265" s="30"/>
+      <c r="D265" s="44"/>
     </row>
     <row r="266" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D266" s="30"/>
+      <c r="D266" s="44"/>
     </row>
     <row r="267" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D267" s="30"/>
+      <c r="D267" s="44"/>
     </row>
     <row r="268" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D268" s="30"/>
+      <c r="D268" s="44"/>
     </row>
     <row r="269" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D269" s="30"/>
+      <c r="D269" s="44"/>
     </row>
     <row r="270" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D270" s="30"/>
+      <c r="D270" s="44"/>
     </row>
     <row r="271" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D271" s="30"/>
+      <c r="D271" s="44"/>
     </row>
     <row r="272" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D272" s="30"/>
+      <c r="D272" s="44"/>
     </row>
     <row r="273" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D273" s="30"/>
+      <c r="D273" s="44"/>
     </row>
     <row r="274" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D274" s="30"/>
+      <c r="D274" s="44"/>
     </row>
     <row r="275" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D275" s="30"/>
+      <c r="D275" s="44"/>
     </row>
     <row r="276" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D276" s="30"/>
+      <c r="D276" s="44"/>
     </row>
     <row r="277" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D277" s="30"/>
+      <c r="D277" s="44"/>
     </row>
     <row r="278" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D278" s="30"/>
+      <c r="D278" s="44"/>
     </row>
     <row r="279" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D279" s="30"/>
+      <c r="D279" s="44"/>
     </row>
     <row r="280" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D280" s="30"/>
+      <c r="D280" s="44"/>
     </row>
     <row r="281" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D281" s="30"/>
+      <c r="D281" s="44"/>
     </row>
     <row r="282" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D282" s="30"/>
+      <c r="D282" s="44"/>
     </row>
     <row r="283" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D283" s="30"/>
+      <c r="D283" s="44"/>
     </row>
     <row r="284" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D284" s="30"/>
+      <c r="D284" s="44"/>
     </row>
     <row r="285" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D285" s="30"/>
+      <c r="D285" s="44"/>
     </row>
     <row r="286" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D286" s="30"/>
+      <c r="D286" s="44"/>
     </row>
     <row r="287" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D287" s="30"/>
+      <c r="D287" s="44"/>
     </row>
     <row r="288" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D288" s="30"/>
+      <c r="D288" s="44"/>
     </row>
     <row r="289" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D289" s="30"/>
+      <c r="D289" s="44"/>
     </row>
     <row r="290" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D290" s="30"/>
+      <c r="D290" s="44"/>
     </row>
     <row r="291" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D291" s="30"/>
+      <c r="D291" s="44"/>
     </row>
     <row r="292" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D292" s="30"/>
+      <c r="D292" s="44"/>
     </row>
     <row r="293" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D293" s="30"/>
+      <c r="D293" s="44"/>
     </row>
     <row r="294" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D294" s="30"/>
+      <c r="D294" s="44"/>
     </row>
     <row r="295" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D295" s="30"/>
+      <c r="D295" s="44"/>
     </row>
     <row r="296" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D296" s="30"/>
+      <c r="D296" s="44"/>
     </row>
     <row r="297" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D297" s="30"/>
+      <c r="D297" s="44"/>
     </row>
     <row r="298" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D298" s="30"/>
+      <c r="D298" s="44"/>
     </row>
     <row r="299" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D299" s="30"/>
+      <c r="D299" s="44"/>
     </row>
     <row r="300" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D300" s="30"/>
+      <c r="D300" s="44"/>
     </row>
     <row r="301" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D301" s="30"/>
+      <c r="D301" s="44"/>
     </row>
     <row r="302" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D302" s="30"/>
+      <c r="D302" s="44"/>
     </row>
     <row r="303" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D303" s="30"/>
+      <c r="D303" s="44"/>
     </row>
     <row r="304" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D304" s="30"/>
+      <c r="D304" s="44"/>
     </row>
     <row r="305" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D305" s="30"/>
+      <c r="D305" s="44"/>
     </row>
     <row r="306" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D306" s="30"/>
+      <c r="D306" s="44"/>
     </row>
     <row r="307" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D307" s="30"/>
+      <c r="D307" s="44"/>
     </row>
     <row r="308" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D308" s="30"/>
+      <c r="D308" s="44"/>
     </row>
     <row r="309" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D309" s="30"/>
+      <c r="D309" s="44"/>
     </row>
     <row r="310" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D310" s="30"/>
+      <c r="D310" s="44"/>
     </row>
     <row r="311" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D311" s="30"/>
+      <c r="D311" s="44"/>
     </row>
     <row r="312" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D312" s="30"/>
+      <c r="D312" s="44"/>
     </row>
     <row r="313" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D313" s="30"/>
+      <c r="D313" s="44"/>
     </row>
     <row r="314" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D314" s="30"/>
+      <c r="D314" s="44"/>
     </row>
     <row r="315" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D315" s="30"/>
+      <c r="D315" s="44"/>
     </row>
     <row r="316" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D316" s="30"/>
+      <c r="D316" s="44"/>
     </row>
     <row r="317" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D317" s="30"/>
+      <c r="D317" s="44"/>
     </row>
     <row r="318" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D318" s="30"/>
+      <c r="D318" s="44"/>
     </row>
     <row r="319" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D319" s="30"/>
+      <c r="D319" s="44"/>
     </row>
     <row r="320" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D320" s="30"/>
+      <c r="D320" s="44"/>
     </row>
     <row r="321" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D321" s="30"/>
+      <c r="D321" s="44"/>
     </row>
     <row r="322" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D322" s="30"/>
+      <c r="D322" s="44"/>
     </row>
     <row r="323" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D323" s="30"/>
+      <c r="D323" s="44"/>
     </row>
     <row r="324" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D324" s="30"/>
+      <c r="D324" s="44"/>
     </row>
     <row r="325" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D325" s="30"/>
+      <c r="D325" s="44"/>
     </row>
     <row r="326" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D326" s="30"/>
+      <c r="D326" s="44"/>
     </row>
     <row r="327" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D327" s="30"/>
+      <c r="D327" s="44"/>
     </row>
     <row r="328" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D328" s="30"/>
+      <c r="D328" s="44"/>
     </row>
     <row r="329" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D329" s="30"/>
+      <c r="D329" s="44"/>
     </row>
     <row r="330" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D330" s="30"/>
+      <c r="D330" s="44"/>
     </row>
     <row r="331" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D331" s="30"/>
+      <c r="D331" s="44"/>
     </row>
     <row r="332" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D332" s="30"/>
+      <c r="D332" s="44"/>
     </row>
     <row r="333" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D333" s="30"/>
+      <c r="D333" s="44"/>
     </row>
     <row r="334" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D334" s="30"/>
+      <c r="D334" s="44"/>
     </row>
     <row r="335" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D335" s="30"/>
+      <c r="D335" s="44"/>
     </row>
     <row r="336" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D336" s="30"/>
+      <c r="D336" s="44"/>
     </row>
     <row r="337" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D337" s="30"/>
+      <c r="D337" s="44"/>
     </row>
     <row r="338" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D338" s="30"/>
+      <c r="D338" s="44"/>
     </row>
     <row r="339" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D339" s="30"/>
+      <c r="D339" s="44"/>
     </row>
     <row r="340" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D340" s="30"/>
+      <c r="D340" s="44"/>
     </row>
     <row r="341" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D341" s="30"/>
+      <c r="D341" s="44"/>
     </row>
     <row r="342" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D342" s="30"/>
+      <c r="D342" s="44"/>
     </row>
     <row r="343" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D343" s="30"/>
+      <c r="D343" s="44"/>
     </row>
     <row r="344" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D344" s="30"/>
+      <c r="D344" s="44"/>
     </row>
     <row r="345" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D345" s="30"/>
+      <c r="D345" s="44"/>
     </row>
     <row r="346" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D346" s="30"/>
+      <c r="D346" s="44"/>
     </row>
     <row r="347" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D347" s="30"/>
+      <c r="D347" s="44"/>
     </row>
     <row r="348" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D348" s="30"/>
+      <c r="D348" s="44"/>
     </row>
     <row r="349" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D349" s="30"/>
+      <c r="D349" s="44"/>
     </row>
     <row r="350" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D350" s="30"/>
+      <c r="D350" s="44"/>
     </row>
     <row r="351" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D351" s="30"/>
+      <c r="D351" s="44"/>
     </row>
     <row r="352" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D352" s="30"/>
+      <c r="D352" s="44"/>
     </row>
     <row r="353" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D353" s="30"/>
+      <c r="D353" s="44"/>
     </row>
     <row r="354" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D354" s="30"/>
+      <c r="D354" s="44"/>
     </row>
     <row r="355" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D355" s="30"/>
+      <c r="D355" s="44"/>
     </row>
     <row r="356" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D356" s="30"/>
+      <c r="D356" s="44"/>
     </row>
     <row r="357" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D357" s="30"/>
+      <c r="D357" s="44"/>
     </row>
     <row r="358" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D358" s="30"/>
+      <c r="D358" s="44"/>
     </row>
     <row r="359" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D359" s="30"/>
+      <c r="D359" s="44"/>
     </row>
     <row r="360" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D360" s="30"/>
+      <c r="D360" s="44"/>
     </row>
     <row r="361" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D361" s="30"/>
+      <c r="D361" s="44"/>
     </row>
     <row r="362" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D362" s="30"/>
+      <c r="D362" s="44"/>
     </row>
     <row r="363" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D363" s="30"/>
+      <c r="D363" s="44"/>
     </row>
     <row r="364" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D364" s="30"/>
+      <c r="D364" s="44"/>
     </row>
     <row r="365" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D365" s="30"/>
+      <c r="D365" s="44"/>
     </row>
     <row r="366" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D366" s="30"/>
+      <c r="D366" s="44"/>
     </row>
     <row r="367" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D367" s="30"/>
+      <c r="D367" s="44"/>
     </row>
     <row r="368" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D368" s="30"/>
+      <c r="D368" s="44"/>
     </row>
     <row r="369" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D369" s="30"/>
+      <c r="D369" s="44"/>
     </row>
     <row r="370" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D370" s="30"/>
+      <c r="D370" s="44"/>
     </row>
     <row r="371" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D371" s="30"/>
+      <c r="D371" s="44"/>
     </row>
     <row r="372" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D372" s="30"/>
+      <c r="D372" s="44"/>
     </row>
     <row r="373" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D373" s="30"/>
+      <c r="D373" s="44"/>
     </row>
     <row r="374" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D374" s="30"/>
+      <c r="D374" s="44"/>
     </row>
     <row r="375" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D375" s="30"/>
+      <c r="D375" s="44"/>
     </row>
     <row r="376" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D376" s="30"/>
+      <c r="D376" s="44"/>
     </row>
     <row r="377" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D377" s="30"/>
+      <c r="D377" s="44"/>
     </row>
     <row r="378" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D378" s="30"/>
+      <c r="D378" s="44"/>
     </row>
     <row r="379" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D379" s="30"/>
+      <c r="D379" s="44"/>
     </row>
     <row r="380" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D380" s="30"/>
+      <c r="D380" s="44"/>
     </row>
     <row r="381" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D381" s="30"/>
+      <c r="D381" s="44"/>
     </row>
     <row r="382" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D382" s="30"/>
+      <c r="D382" s="44"/>
     </row>
     <row r="383" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D383" s="30"/>
+      <c r="D383" s="44"/>
     </row>
     <row r="384" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D384" s="30"/>
+      <c r="D384" s="44"/>
     </row>
     <row r="385" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D385" s="30"/>
+      <c r="D385" s="44"/>
     </row>
     <row r="386" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D386" s="30"/>
+      <c r="D386" s="44"/>
     </row>
     <row r="387" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D387" s="30"/>
+      <c r="D387" s="44"/>
     </row>
     <row r="388" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D388" s="30"/>
+      <c r="D388" s="44"/>
     </row>
     <row r="389" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D389" s="30"/>
+      <c r="D389" s="44"/>
     </row>
     <row r="390" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D390" s="30"/>
+      <c r="D390" s="44"/>
     </row>
     <row r="391" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D391" s="30"/>
+      <c r="D391" s="44"/>
     </row>
     <row r="392" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D392" s="30"/>
+      <c r="D392" s="44"/>
     </row>
     <row r="393" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D393" s="30"/>
+      <c r="D393" s="44"/>
     </row>
     <row r="394" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D394" s="30"/>
+      <c r="D394" s="44"/>
     </row>
     <row r="395" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D395" s="30"/>
+      <c r="D395" s="44"/>
     </row>
     <row r="396" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D396" s="30"/>
+      <c r="D396" s="44"/>
     </row>
     <row r="397" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D397" s="30"/>
+      <c r="D397" s="44"/>
     </row>
     <row r="398" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D398" s="30"/>
+      <c r="D398" s="44"/>
     </row>
     <row r="399" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D399" s="30"/>
+      <c r="D399" s="44"/>
     </row>
     <row r="400" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D400" s="30"/>
+      <c r="D400" s="44"/>
     </row>
     <row r="401" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D401" s="30"/>
+      <c r="D401" s="44"/>
     </row>
     <row r="402" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D402" s="30"/>
+      <c r="D402" s="44"/>
     </row>
     <row r="403" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D403" s="30"/>
+      <c r="D403" s="44"/>
     </row>
     <row r="404" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D404" s="30"/>
+      <c r="D404" s="44"/>
     </row>
     <row r="405" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D405" s="30"/>
+      <c r="D405" s="44"/>
     </row>
     <row r="406" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D406" s="30"/>
+      <c r="D406" s="44"/>
     </row>
     <row r="407" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D407" s="30"/>
+      <c r="D407" s="44"/>
     </row>
     <row r="408" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D408" s="30"/>
+      <c r="D408" s="44"/>
     </row>
     <row r="409" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D409" s="30"/>
+      <c r="D409" s="44"/>
     </row>
     <row r="410" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D410" s="30"/>
+      <c r="D410" s="44"/>
     </row>
     <row r="411" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D411" s="30"/>
+      <c r="D411" s="44"/>
     </row>
     <row r="412" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D412" s="30"/>
+      <c r="D412" s="44"/>
     </row>
     <row r="413" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D413" s="30"/>
+      <c r="D413" s="44"/>
     </row>
     <row r="414" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D414" s="30"/>
+      <c r="D414" s="44"/>
     </row>
     <row r="415" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D415" s="30"/>
+      <c r="D415" s="44"/>
     </row>
     <row r="416" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D416" s="30"/>
+      <c r="D416" s="44"/>
     </row>
     <row r="417" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D417" s="30"/>
+      <c r="D417" s="44"/>
     </row>
     <row r="418" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D418" s="30"/>
+      <c r="D418" s="44"/>
     </row>
     <row r="419" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D419" s="30"/>
+      <c r="D419" s="44"/>
     </row>
     <row r="420" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D420" s="30"/>
+      <c r="D420" s="44"/>
     </row>
     <row r="421" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D421" s="30"/>
+      <c r="D421" s="44"/>
     </row>
     <row r="422" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D422" s="30"/>
+      <c r="D422" s="44"/>
     </row>
     <row r="423" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D423" s="30"/>
+      <c r="D423" s="44"/>
     </row>
     <row r="424" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D424" s="30"/>
+      <c r="D424" s="44"/>
     </row>
     <row r="425" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D425" s="30"/>
+      <c r="D425" s="44"/>
     </row>
     <row r="426" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D426" s="30"/>
+      <c r="D426" s="44"/>
     </row>
     <row r="427" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D427" s="30"/>
+      <c r="D427" s="44"/>
     </row>
     <row r="428" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D428" s="30"/>
+      <c r="D428" s="44"/>
     </row>
     <row r="429" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D429" s="30"/>
+      <c r="D429" s="44"/>
     </row>
     <row r="430" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D430" s="30"/>
+      <c r="D430" s="44"/>
     </row>
     <row r="431" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D431" s="30"/>
+      <c r="D431" s="44"/>
     </row>
     <row r="432" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D432" s="30"/>
+      <c r="D432" s="44"/>
     </row>
     <row r="433" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D433" s="30"/>
+      <c r="D433" s="44"/>
     </row>
     <row r="434" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D434" s="30"/>
+      <c r="D434" s="44"/>
     </row>
     <row r="435" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D435" s="30"/>
+      <c r="D435" s="44"/>
     </row>
     <row r="436" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D436" s="30"/>
+      <c r="D436" s="44"/>
     </row>
     <row r="437" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D437" s="30"/>
+      <c r="D437" s="44"/>
     </row>
     <row r="438" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D438" s="30"/>
+      <c r="D438" s="44"/>
     </row>
     <row r="439" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D439" s="30"/>
+      <c r="D439" s="44"/>
     </row>
     <row r="440" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D440" s="30"/>
+      <c r="D440" s="44"/>
     </row>
     <row r="441" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D441" s="30"/>
+      <c r="D441" s="44"/>
     </row>
     <row r="442" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D442" s="30"/>
+      <c r="D442" s="44"/>
     </row>
     <row r="443" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D443" s="30"/>
+      <c r="D443" s="44"/>
     </row>
     <row r="444" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D444" s="30"/>
+      <c r="D444" s="44"/>
     </row>
     <row r="445" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D445" s="30"/>
+      <c r="D445" s="44"/>
     </row>
     <row r="446" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D446" s="30"/>
+      <c r="D446" s="44"/>
     </row>
     <row r="447" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D447" s="30"/>
+      <c r="D447" s="44"/>
     </row>
     <row r="448" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D448" s="30"/>
+      <c r="D448" s="44"/>
     </row>
     <row r="449" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D449" s="30"/>
+      <c r="D449" s="44"/>
     </row>
     <row r="450" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D450" s="30"/>
+      <c r="D450" s="44"/>
     </row>
     <row r="451" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D451" s="30"/>
+      <c r="D451" s="44"/>
     </row>
     <row r="452" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D452" s="30"/>
+      <c r="D452" s="44"/>
     </row>
     <row r="453" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D453" s="30"/>
+      <c r="D453" s="44"/>
     </row>
     <row r="454" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D454" s="30"/>
+      <c r="D454" s="44"/>
     </row>
     <row r="455" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D455" s="30"/>
+      <c r="D455" s="44"/>
     </row>
     <row r="456" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D456" s="30"/>
+      <c r="D456" s="44"/>
     </row>
     <row r="457" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D457" s="30"/>
+      <c r="D457" s="44"/>
     </row>
     <row r="458" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D458" s="30"/>
+      <c r="D458" s="44"/>
     </row>
     <row r="459" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D459" s="30"/>
+      <c r="D459" s="44"/>
     </row>
     <row r="460" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D460" s="30"/>
+      <c r="D460" s="44"/>
     </row>
     <row r="461" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D461" s="30"/>
+      <c r="D461" s="44"/>
     </row>
     <row r="462" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D462" s="30"/>
+      <c r="D462" s="44"/>
     </row>
     <row r="463" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D463" s="30"/>
+      <c r="D463" s="44"/>
     </row>
     <row r="464" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D464" s="30"/>
+      <c r="D464" s="44"/>
     </row>
     <row r="465" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D465" s="30"/>
+      <c r="D465" s="44"/>
     </row>
     <row r="466" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D466" s="30"/>
+      <c r="D466" s="44"/>
     </row>
     <row r="467" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D467" s="30"/>
+      <c r="D467" s="44"/>
     </row>
     <row r="468" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D468" s="30"/>
+      <c r="D468" s="44"/>
     </row>
     <row r="469" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D469" s="30"/>
+      <c r="D469" s="44"/>
     </row>
     <row r="470" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D470" s="30"/>
+      <c r="D470" s="44"/>
     </row>
     <row r="471" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D471" s="30"/>
+      <c r="D471" s="44"/>
     </row>
     <row r="472" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D472" s="30"/>
+      <c r="D472" s="44"/>
     </row>
     <row r="473" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D473" s="30"/>
+      <c r="D473" s="44"/>
     </row>
     <row r="474" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D474" s="30"/>
+      <c r="D474" s="44"/>
     </row>
     <row r="475" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D475" s="30"/>
+      <c r="D475" s="44"/>
     </row>
     <row r="476" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D476" s="30"/>
+      <c r="D476" s="44"/>
     </row>
     <row r="477" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D477" s="30"/>
+      <c r="D477" s="44"/>
     </row>
     <row r="478" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D478" s="30"/>
+      <c r="D478" s="44"/>
     </row>
     <row r="479" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D479" s="30"/>
+      <c r="D479" s="44"/>
     </row>
     <row r="480" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D480" s="30"/>
+      <c r="D480" s="44"/>
     </row>
     <row r="481" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D481" s="30"/>
+      <c r="D481" s="44"/>
     </row>
     <row r="482" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D482" s="30"/>
+      <c r="D482" s="44"/>
     </row>
     <row r="483" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D483" s="30"/>
+      <c r="D483" s="44"/>
     </row>
     <row r="484" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D484" s="30"/>
+      <c r="D484" s="44"/>
     </row>
     <row r="485" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D485" s="30"/>
+      <c r="D485" s="44"/>
     </row>
     <row r="486" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D486" s="30"/>
+      <c r="D486" s="44"/>
     </row>
     <row r="487" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D487" s="30"/>
+      <c r="D487" s="44"/>
     </row>
     <row r="488" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D488" s="30"/>
+      <c r="D488" s="44"/>
     </row>
     <row r="489" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D489" s="30"/>
+      <c r="D489" s="44"/>
     </row>
     <row r="490" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D490" s="30"/>
+      <c r="D490" s="44"/>
     </row>
     <row r="491" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D491" s="30"/>
+      <c r="D491" s="44"/>
     </row>
     <row r="492" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D492" s="30"/>
+      <c r="D492" s="44"/>
     </row>
     <row r="493" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D493" s="30"/>
+      <c r="D493" s="44"/>
     </row>
     <row r="494" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D494" s="30"/>
+      <c r="D494" s="44"/>
     </row>
     <row r="495" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D495" s="30"/>
+      <c r="D495" s="44"/>
     </row>
     <row r="496" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D496" s="30"/>
+      <c r="D496" s="44"/>
     </row>
     <row r="497" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D497" s="30"/>
+      <c r="D497" s="44"/>
     </row>
     <row r="498" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D498" s="30"/>
+      <c r="D498" s="44"/>
     </row>
     <row r="499" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D499" s="30"/>
+      <c r="D499" s="44"/>
     </row>
     <row r="500" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D500" s="30"/>
+      <c r="D500" s="44"/>
     </row>
     <row r="501" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D501" s="30"/>
+      <c r="D501" s="44"/>
     </row>
     <row r="502" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D502" s="30"/>
+      <c r="D502" s="44"/>
     </row>
     <row r="503" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D503" s="30"/>
+      <c r="D503" s="44"/>
     </row>
     <row r="504" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D504" s="30"/>
+      <c r="D504" s="44"/>
     </row>
     <row r="505" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D505" s="30"/>
+      <c r="D505" s="44"/>
     </row>
     <row r="506" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D506" s="30"/>
+      <c r="D506" s="44"/>
     </row>
     <row r="507" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D507" s="30"/>
+      <c r="D507" s="44"/>
     </row>
     <row r="508" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D508" s="30"/>
+      <c r="D508" s="44"/>
     </row>
     <row r="509" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D509" s="30"/>
+      <c r="D509" s="44"/>
     </row>
     <row r="510" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D510" s="30"/>
+      <c r="D510" s="44"/>
     </row>
     <row r="511" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D511" s="30"/>
+      <c r="D511" s="44"/>
     </row>
     <row r="512" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D512" s="30"/>
+      <c r="D512" s="44"/>
     </row>
     <row r="513" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D513" s="30"/>
+      <c r="D513" s="44"/>
     </row>
     <row r="514" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D514" s="30"/>
+      <c r="D514" s="44"/>
     </row>
     <row r="515" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D515" s="30"/>
+      <c r="D515" s="44"/>
     </row>
     <row r="516" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D516" s="30"/>
+      <c r="D516" s="44"/>
     </row>
     <row r="517" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D517" s="30"/>
+      <c r="D517" s="44"/>
     </row>
     <row r="518" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D518" s="30"/>
+      <c r="D518" s="44"/>
     </row>
     <row r="519" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D519" s="30"/>
+      <c r="D519" s="44"/>
     </row>
     <row r="520" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D520" s="30"/>
+      <c r="D520" s="44"/>
     </row>
     <row r="521" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D521" s="30"/>
+      <c r="D521" s="44"/>
     </row>
     <row r="522" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D522" s="30"/>
+      <c r="D522" s="44"/>
     </row>
     <row r="523" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D523" s="30"/>
+      <c r="D523" s="44"/>
     </row>
     <row r="524" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D524" s="30"/>
+      <c r="D524" s="44"/>
     </row>
     <row r="525" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D525" s="30"/>
+      <c r="D525" s="44"/>
     </row>
     <row r="526" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D526" s="30"/>
+      <c r="D526" s="44"/>
     </row>
     <row r="527" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D527" s="30"/>
+      <c r="D527" s="44"/>
     </row>
     <row r="528" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D528" s="30"/>
+      <c r="D528" s="44"/>
     </row>
     <row r="529" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D529" s="30"/>
+      <c r="D529" s="44"/>
     </row>
     <row r="530" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D530" s="30"/>
+      <c r="D530" s="44"/>
     </row>
     <row r="531" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D531" s="30"/>
+      <c r="D531" s="44"/>
     </row>
     <row r="532" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D532" s="30"/>
+      <c r="D532" s="44"/>
     </row>
     <row r="533" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D533" s="30"/>
+      <c r="D533" s="44"/>
     </row>
     <row r="534" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D534" s="30"/>
+      <c r="D534" s="44"/>
     </row>
     <row r="535" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D535" s="30"/>
+      <c r="D535" s="44"/>
     </row>
     <row r="536" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D536" s="30"/>
+      <c r="D536" s="44"/>
     </row>
     <row r="537" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D537" s="30"/>
+      <c r="D537" s="44"/>
     </row>
     <row r="538" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D538" s="30"/>
+      <c r="D538" s="44"/>
     </row>
     <row r="539" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D539" s="30"/>
+      <c r="D539" s="44"/>
     </row>
     <row r="540" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D540" s="30"/>
+      <c r="D540" s="44"/>
     </row>
     <row r="541" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D541" s="30"/>
+      <c r="D541" s="44"/>
     </row>
     <row r="542" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D542" s="30"/>
+      <c r="D542" s="44"/>
     </row>
     <row r="543" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D543" s="30"/>
+      <c r="D543" s="44"/>
     </row>
     <row r="544" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D544" s="30"/>
+      <c r="D544" s="44"/>
     </row>
     <row r="545" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D545" s="30"/>
+      <c r="D545" s="44"/>
     </row>
     <row r="546" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D546" s="30"/>
+      <c r="D546" s="44"/>
     </row>
     <row r="547" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D547" s="30"/>
+      <c r="D547" s="44"/>
     </row>
     <row r="548" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D548" s="30"/>
+      <c r="D548" s="44"/>
     </row>
     <row r="549" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D549" s="30"/>
+      <c r="D549" s="44"/>
     </row>
     <row r="550" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D550" s="30"/>
+      <c r="D550" s="44"/>
     </row>
     <row r="551" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D551" s="30"/>
+      <c r="D551" s="44"/>
     </row>
     <row r="552" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D552" s="30"/>
+      <c r="D552" s="44"/>
     </row>
     <row r="553" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D553" s="30"/>
+      <c r="D553" s="44"/>
     </row>
     <row r="554" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D554" s="30"/>
+      <c r="D554" s="44"/>
     </row>
     <row r="555" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D555" s="30"/>
+      <c r="D555" s="44"/>
     </row>
     <row r="556" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D556" s="30"/>
+      <c r="D556" s="44"/>
     </row>
     <row r="557" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D557" s="30"/>
+      <c r="D557" s="44"/>
     </row>
     <row r="558" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D558" s="30"/>
+      <c r="D558" s="44"/>
     </row>
     <row r="559" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D559" s="30"/>
+      <c r="D559" s="44"/>
     </row>
     <row r="560" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D560" s="30"/>
+      <c r="D560" s="44"/>
     </row>
     <row r="561" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D561" s="30"/>
+      <c r="D561" s="44"/>
     </row>
     <row r="562" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D562" s="30"/>
+      <c r="D562" s="44"/>
     </row>
     <row r="563" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D563" s="30"/>
+      <c r="D563" s="44"/>
     </row>
     <row r="564" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D564" s="30"/>
+      <c r="D564" s="44"/>
     </row>
     <row r="565" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D565" s="30"/>
+      <c r="D565" s="44"/>
     </row>
     <row r="566" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D566" s="30"/>
+      <c r="D566" s="44"/>
     </row>
     <row r="567" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D567" s="30"/>
+      <c r="D567" s="44"/>
     </row>
     <row r="568" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D568" s="30"/>
+      <c r="D568" s="44"/>
     </row>
     <row r="569" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D569" s="30"/>
+      <c r="D569" s="44"/>
     </row>
     <row r="570" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D570" s="30"/>
+      <c r="D570" s="44"/>
     </row>
     <row r="571" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D571" s="30"/>
+      <c r="D571" s="44"/>
     </row>
     <row r="572" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D572" s="30"/>
+      <c r="D572" s="44"/>
     </row>
     <row r="573" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D573" s="30"/>
+      <c r="D573" s="44"/>
     </row>
     <row r="574" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D574" s="30"/>
+      <c r="D574" s="44"/>
     </row>
     <row r="575" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D575" s="30"/>
+      <c r="D575" s="44"/>
     </row>
     <row r="576" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D576" s="30"/>
+      <c r="D576" s="44"/>
     </row>
     <row r="577" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D577" s="30"/>
+      <c r="D577" s="44"/>
     </row>
     <row r="578" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D578" s="30"/>
+      <c r="D578" s="44"/>
     </row>
     <row r="579" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D579" s="30"/>
+      <c r="D579" s="44"/>
     </row>
     <row r="580" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D580" s="30"/>
+      <c r="D580" s="44"/>
     </row>
     <row r="581" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D581" s="30"/>
+      <c r="D581" s="44"/>
     </row>
     <row r="582" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D582" s="30"/>
+      <c r="D582" s="44"/>
     </row>
     <row r="583" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D583" s="30"/>
+      <c r="D583" s="44"/>
     </row>
     <row r="584" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D584" s="30"/>
+      <c r="D584" s="44"/>
     </row>
     <row r="585" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D585" s="30"/>
+      <c r="D585" s="44"/>
     </row>
     <row r="586" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D586" s="30"/>
+      <c r="D586" s="44"/>
     </row>
     <row r="587" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D587" s="30"/>
+      <c r="D587" s="44"/>
     </row>
     <row r="588" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D588" s="30"/>
+      <c r="D588" s="44"/>
     </row>
     <row r="589" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D589" s="30"/>
+      <c r="D589" s="44"/>
     </row>
     <row r="590" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D590" s="30"/>
+      <c r="D590" s="44"/>
     </row>
     <row r="591" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D591" s="30"/>
+      <c r="D591" s="44"/>
     </row>
     <row r="592" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D592" s="30"/>
+      <c r="D592" s="44"/>
     </row>
     <row r="593" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D593" s="30"/>
+      <c r="D593" s="44"/>
     </row>
     <row r="594" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D594" s="30"/>
+      <c r="D594" s="44"/>
     </row>
     <row r="595" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D595" s="30"/>
+      <c r="D595" s="44"/>
     </row>
     <row r="596" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D596" s="30"/>
+      <c r="D596" s="44"/>
     </row>
     <row r="597" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D597" s="30"/>
+      <c r="D597" s="44"/>
     </row>
     <row r="598" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D598" s="30"/>
+      <c r="D598" s="44"/>
     </row>
     <row r="599" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D599" s="30"/>
+      <c r="D599" s="44"/>
     </row>
     <row r="600" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D600" s="30"/>
+      <c r="D600" s="44"/>
     </row>
     <row r="601" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D601" s="30"/>
+      <c r="D601" s="44"/>
     </row>
     <row r="602" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D602" s="30"/>
+      <c r="D602" s="44"/>
     </row>
     <row r="603" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D603" s="30"/>
+      <c r="D603" s="44"/>
     </row>
     <row r="604" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D604" s="30"/>
+      <c r="D604" s="44"/>
     </row>
     <row r="605" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D605" s="30"/>
+      <c r="D605" s="44"/>
     </row>
     <row r="606" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D606" s="30"/>
+      <c r="D606" s="44"/>
     </row>
     <row r="607" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D607" s="30"/>
+      <c r="D607" s="44"/>
     </row>
     <row r="608" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D608" s="30"/>
+      <c r="D608" s="44"/>
     </row>
     <row r="609" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D609" s="30"/>
+      <c r="D609" s="44"/>
     </row>
     <row r="610" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D610" s="30"/>
+      <c r="D610" s="44"/>
     </row>
     <row r="611" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D611" s="30"/>
+      <c r="D611" s="44"/>
     </row>
     <row r="612" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D612" s="30"/>
+      <c r="D612" s="44"/>
     </row>
     <row r="613" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D613" s="30"/>
+      <c r="D613" s="44"/>
     </row>
     <row r="614" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D614" s="30"/>
+      <c r="D614" s="44"/>
     </row>
     <row r="615" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D615" s="30"/>
+      <c r="D615" s="44"/>
     </row>
     <row r="616" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D616" s="30"/>
+      <c r="D616" s="44"/>
     </row>
     <row r="617" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D617" s="30"/>
+      <c r="D617" s="44"/>
     </row>
     <row r="618" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D618" s="30"/>
+      <c r="D618" s="44"/>
     </row>
     <row r="619" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D619" s="30"/>
+      <c r="D619" s="44"/>
     </row>
     <row r="620" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D620" s="30"/>
+      <c r="D620" s="44"/>
     </row>
     <row r="621" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D621" s="30"/>
+      <c r="D621" s="44"/>
     </row>
     <row r="622" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D622" s="30"/>
+      <c r="D622" s="44"/>
     </row>
     <row r="623" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D623" s="30"/>
+      <c r="D623" s="44"/>
     </row>
     <row r="624" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D624" s="30"/>
+      <c r="D624" s="44"/>
     </row>
     <row r="625" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D625" s="30"/>
+      <c r="D625" s="44"/>
     </row>
     <row r="626" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D626" s="30"/>
+      <c r="D626" s="44"/>
     </row>
     <row r="627" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D627" s="30"/>
+      <c r="D627" s="44"/>
     </row>
     <row r="628" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D628" s="30"/>
+      <c r="D628" s="44"/>
     </row>
     <row r="629" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D629" s="30"/>
+      <c r="D629" s="44"/>
     </row>
     <row r="630" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D630" s="30"/>
+      <c r="D630" s="44"/>
     </row>
     <row r="631" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D631" s="30"/>
+      <c r="D631" s="44"/>
     </row>
     <row r="632" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D632" s="30"/>
+      <c r="D632" s="44"/>
     </row>
     <row r="633" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D633" s="30"/>
+      <c r="D633" s="44"/>
     </row>
     <row r="634" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D634" s="30"/>
+      <c r="D634" s="44"/>
     </row>
     <row r="635" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D635" s="30"/>
+      <c r="D635" s="44"/>
     </row>
     <row r="636" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D636" s="30"/>
+      <c r="D636" s="44"/>
     </row>
     <row r="637" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D637" s="30"/>
+      <c r="D637" s="44"/>
     </row>
     <row r="638" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D638" s="30"/>
+      <c r="D638" s="44"/>
     </row>
     <row r="639" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D639" s="30"/>
+      <c r="D639" s="44"/>
     </row>
     <row r="640" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D640" s="30"/>
+      <c r="D640" s="44"/>
     </row>
     <row r="641" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D641" s="30"/>
+      <c r="D641" s="44"/>
     </row>
     <row r="642" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D642" s="30"/>
+      <c r="D642" s="44"/>
     </row>
     <row r="643" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D643" s="30"/>
+      <c r="D643" s="44"/>
     </row>
     <row r="644" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D644" s="30"/>
+      <c r="D644" s="44"/>
     </row>
     <row r="645" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D645" s="30"/>
+      <c r="D645" s="44"/>
     </row>
     <row r="646" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D646" s="30"/>
+      <c r="D646" s="44"/>
     </row>
     <row r="647" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D647" s="30"/>
+      <c r="D647" s="44"/>
     </row>
     <row r="648" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D648" s="30"/>
+      <c r="D648" s="44"/>
     </row>
     <row r="649" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D649" s="30"/>
+      <c r="D649" s="44"/>
     </row>
     <row r="650" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D650" s="30"/>
+      <c r="D650" s="44"/>
     </row>
     <row r="651" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D651" s="30"/>
+      <c r="D651" s="44"/>
     </row>
     <row r="652" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D652" s="30"/>
+      <c r="D652" s="44"/>
     </row>
     <row r="653" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D653" s="30"/>
+      <c r="D653" s="44"/>
     </row>
     <row r="654" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D654" s="30"/>
+      <c r="D654" s="44"/>
     </row>
     <row r="655" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D655" s="30"/>
+      <c r="D655" s="44"/>
     </row>
     <row r="656" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D656" s="30"/>
+      <c r="D656" s="44"/>
     </row>
     <row r="657" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D657" s="30"/>
+      <c r="D657" s="44"/>
     </row>
     <row r="658" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D658" s="30"/>
+      <c r="D658" s="44"/>
     </row>
     <row r="659" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D659" s="30"/>
+      <c r="D659" s="44"/>
     </row>
     <row r="660" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D660" s="30"/>
+      <c r="D660" s="44"/>
     </row>
     <row r="661" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D661" s="30"/>
+      <c r="D661" s="44"/>
     </row>
     <row r="662" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D662" s="30"/>
+      <c r="D662" s="44"/>
     </row>
     <row r="663" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D663" s="30"/>
+      <c r="D663" s="44"/>
     </row>
     <row r="664" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D664" s="30"/>
+      <c r="D664" s="44"/>
     </row>
     <row r="665" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D665" s="30"/>
+      <c r="D665" s="44"/>
     </row>
     <row r="666" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D666" s="30"/>
+      <c r="D666" s="44"/>
     </row>
     <row r="667" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D667" s="30"/>
+      <c r="D667" s="44"/>
     </row>
     <row r="668" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D668" s="30"/>
+      <c r="D668" s="44"/>
     </row>
     <row r="669" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D669" s="30"/>
+      <c r="D669" s="44"/>
     </row>
     <row r="670" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D670" s="30"/>
+      <c r="D670" s="44"/>
     </row>
     <row r="671" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D671" s="30"/>
+      <c r="D671" s="44"/>
     </row>
     <row r="672" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D672" s="30"/>
+      <c r="D672" s="44"/>
     </row>
     <row r="673" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D673" s="30"/>
+      <c r="D673" s="44"/>
     </row>
     <row r="674" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D674" s="30"/>
+      <c r="D674" s="44"/>
     </row>
     <row r="675" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D675" s="30"/>
+      <c r="D675" s="44"/>
     </row>
     <row r="676" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D676" s="30"/>
+      <c r="D676" s="44"/>
     </row>
     <row r="677" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D677" s="30"/>
+      <c r="D677" s="44"/>
     </row>
     <row r="678" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D678" s="30"/>
+      <c r="D678" s="44"/>
     </row>
     <row r="679" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D679" s="30"/>
+      <c r="D679" s="44"/>
     </row>
     <row r="680" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D680" s="30"/>
+      <c r="D680" s="44"/>
     </row>
     <row r="681" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D681" s="30"/>
+      <c r="D681" s="44"/>
     </row>
     <row r="682" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D682" s="30"/>
+      <c r="D682" s="44"/>
     </row>
     <row r="683" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D683" s="30"/>
+      <c r="D683" s="44"/>
     </row>
     <row r="684" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D684" s="30"/>
+      <c r="D684" s="44"/>
     </row>
     <row r="685" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D685" s="30"/>
+      <c r="D685" s="44"/>
     </row>
     <row r="686" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D686" s="30"/>
+      <c r="D686" s="44"/>
     </row>
     <row r="687" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D687" s="30"/>
+      <c r="D687" s="44"/>
     </row>
     <row r="688" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D688" s="30"/>
+      <c r="D688" s="44"/>
     </row>
     <row r="689" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D689" s="30"/>
+      <c r="D689" s="44"/>
     </row>
     <row r="690" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D690" s="30"/>
+      <c r="D690" s="44"/>
     </row>
     <row r="691" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D691" s="30"/>
+      <c r="D691" s="44"/>
     </row>
     <row r="692" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D692" s="30"/>
+      <c r="D692" s="44"/>
     </row>
     <row r="693" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D693" s="30"/>
+      <c r="D693" s="44"/>
     </row>
     <row r="694" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D694" s="30"/>
+      <c r="D694" s="44"/>
     </row>
     <row r="695" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D695" s="30"/>
+      <c r="D695" s="44"/>
     </row>
     <row r="696" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D696" s="30"/>
+      <c r="D696" s="44"/>
     </row>
     <row r="697" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D697" s="30"/>
+      <c r="D697" s="44"/>
     </row>
     <row r="698" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D698" s="30"/>
+      <c r="D698" s="44"/>
     </row>
     <row r="699" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D699" s="30"/>
+      <c r="D699" s="44"/>
     </row>
     <row r="700" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D700" s="30"/>
+      <c r="D700" s="44"/>
     </row>
     <row r="701" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D701" s="30"/>
+      <c r="D701" s="44"/>
     </row>
     <row r="702" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D702" s="30"/>
+      <c r="D702" s="44"/>
     </row>
     <row r="703" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D703" s="30"/>
+      <c r="D703" s="44"/>
     </row>
     <row r="704" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D704" s="30"/>
+      <c r="D704" s="44"/>
     </row>
     <row r="705" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D705" s="30"/>
+      <c r="D705" s="44"/>
     </row>
     <row r="706" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D706" s="30"/>
+      <c r="D706" s="44"/>
     </row>
     <row r="707" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D707" s="30"/>
+      <c r="D707" s="44"/>
     </row>
     <row r="708" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D708" s="30"/>
+      <c r="D708" s="44"/>
     </row>
     <row r="709" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D709" s="30"/>
+      <c r="D709" s="44"/>
     </row>
     <row r="710" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D710" s="30"/>
+      <c r="D710" s="44"/>
     </row>
     <row r="711" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D711" s="30"/>
+      <c r="D711" s="44"/>
     </row>
     <row r="712" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D712" s="30"/>
+      <c r="D712" s="44"/>
     </row>
     <row r="713" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D713" s="30"/>
+      <c r="D713" s="44"/>
     </row>
     <row r="714" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D714" s="30"/>
+      <c r="D714" s="44"/>
     </row>
     <row r="715" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D715" s="30"/>
+      <c r="D715" s="44"/>
     </row>
     <row r="716" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D716" s="30"/>
+      <c r="D716" s="44"/>
     </row>
     <row r="717" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D717" s="30"/>
+      <c r="D717" s="44"/>
     </row>
     <row r="718" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D718" s="30"/>
+      <c r="D718" s="44"/>
     </row>
     <row r="719" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D719" s="30"/>
+      <c r="D719" s="44"/>
     </row>
     <row r="720" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D720" s="30"/>
+      <c r="D720" s="44"/>
     </row>
     <row r="721" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D721" s="30"/>
+      <c r="D721" s="44"/>
     </row>
     <row r="722" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D722" s="30"/>
+      <c r="D722" s="44"/>
     </row>
     <row r="723" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D723" s="30"/>
+      <c r="D723" s="44"/>
     </row>
     <row r="724" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D724" s="30"/>
+      <c r="D724" s="44"/>
     </row>
     <row r="725" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D725" s="30"/>
+      <c r="D725" s="44"/>
     </row>
     <row r="726" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D726" s="30"/>
+      <c r="D726" s="44"/>
     </row>
     <row r="727" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D727" s="30"/>
+      <c r="D727" s="44"/>
     </row>
     <row r="728" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D728" s="30"/>
+      <c r="D728" s="44"/>
     </row>
     <row r="729" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D729" s="30"/>
+      <c r="D729" s="44"/>
     </row>
     <row r="730" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D730" s="30"/>
+      <c r="D730" s="44"/>
     </row>
     <row r="731" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D731" s="30"/>
+      <c r="D731" s="44"/>
     </row>
     <row r="732" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D732" s="30"/>
+      <c r="D732" s="44"/>
     </row>
     <row r="733" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D733" s="30"/>
+      <c r="D733" s="44"/>
     </row>
     <row r="734" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D734" s="30"/>
+      <c r="D734" s="44"/>
     </row>
     <row r="735" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D735" s="30"/>
+      <c r="D735" s="44"/>
     </row>
     <row r="736" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D736" s="30"/>
+      <c r="D736" s="44"/>
     </row>
     <row r="737" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D737" s="30"/>
+      <c r="D737" s="44"/>
     </row>
     <row r="738" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D738" s="30"/>
+      <c r="D738" s="44"/>
     </row>
     <row r="739" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D739" s="30"/>
+      <c r="D739" s="44"/>
     </row>
     <row r="740" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D740" s="30"/>
+      <c r="D740" s="44"/>
     </row>
     <row r="741" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D741" s="30"/>
+      <c r="D741" s="44"/>
     </row>
     <row r="742" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D742" s="30"/>
+      <c r="D742" s="44"/>
     </row>
     <row r="743" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D743" s="30"/>
+      <c r="D743" s="44"/>
     </row>
     <row r="744" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D744" s="30"/>
+      <c r="D744" s="44"/>
     </row>
     <row r="745" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D745" s="30"/>
+      <c r="D745" s="44"/>
     </row>
     <row r="746" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D746" s="30"/>
+      <c r="D746" s="44"/>
     </row>
     <row r="747" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D747" s="30"/>
+      <c r="D747" s="44"/>
     </row>
     <row r="748" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D748" s="30"/>
+      <c r="D748" s="44"/>
     </row>
     <row r="749" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D749" s="30"/>
+      <c r="D749" s="44"/>
     </row>
     <row r="750" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D750" s="30"/>
+      <c r="D750" s="44"/>
     </row>
     <row r="751" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D751" s="30"/>
+      <c r="D751" s="44"/>
     </row>
     <row r="752" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D752" s="30"/>
+      <c r="D752" s="44"/>
     </row>
     <row r="753" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D753" s="30"/>
+      <c r="D753" s="44"/>
     </row>
     <row r="754" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D754" s="30"/>
+      <c r="D754" s="44"/>
     </row>
     <row r="755" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D755" s="30"/>
+      <c r="D755" s="44"/>
     </row>
     <row r="756" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D756" s="30"/>
+      <c r="D756" s="44"/>
     </row>
     <row r="757" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D757" s="30"/>
+      <c r="D757" s="44"/>
     </row>
     <row r="758" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D758" s="30"/>
+      <c r="D758" s="44"/>
     </row>
     <row r="759" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D759" s="30"/>
+      <c r="D759" s="44"/>
     </row>
     <row r="760" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D760" s="30"/>
+      <c r="D760" s="44"/>
     </row>
     <row r="761" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D761" s="30"/>
+      <c r="D761" s="44"/>
     </row>
     <row r="762" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D762" s="30"/>
+      <c r="D762" s="44"/>
     </row>
     <row r="763" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D763" s="30"/>
+      <c r="D763" s="44"/>
     </row>
     <row r="764" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D764" s="30"/>
+      <c r="D764" s="44"/>
     </row>
     <row r="765" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D765" s="30"/>
+      <c r="D765" s="44"/>
     </row>
     <row r="766" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D766" s="30"/>
+      <c r="D766" s="44"/>
     </row>
     <row r="767" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D767" s="30"/>
+      <c r="D767" s="44"/>
     </row>
     <row r="768" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D768" s="30"/>
+      <c r="D768" s="44"/>
     </row>
     <row r="769" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D769" s="30"/>
+      <c r="D769" s="44"/>
     </row>
     <row r="770" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D770" s="30"/>
+      <c r="D770" s="44"/>
     </row>
     <row r="771" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D771" s="30"/>
+      <c r="D771" s="44"/>
     </row>
     <row r="772" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D772" s="30"/>
+      <c r="D772" s="44"/>
     </row>
     <row r="773" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D773" s="30"/>
+      <c r="D773" s="44"/>
     </row>
     <row r="774" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D774" s="30"/>
+      <c r="D774" s="44"/>
     </row>
     <row r="775" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D775" s="30"/>
+      <c r="D775" s="44"/>
     </row>
     <row r="776" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D776" s="30"/>
+      <c r="D776" s="44"/>
     </row>
     <row r="777" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D777" s="30"/>
+      <c r="D777" s="44"/>
     </row>
     <row r="778" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D778" s="30"/>
+      <c r="D778" s="44"/>
     </row>
     <row r="779" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D779" s="30"/>
+      <c r="D779" s="44"/>
     </row>
     <row r="780" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D780" s="30"/>
+      <c r="D780" s="44"/>
     </row>
     <row r="781" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D781" s="30"/>
+      <c r="D781" s="44"/>
     </row>
     <row r="782" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D782" s="30"/>
+      <c r="D782" s="44"/>
     </row>
     <row r="783" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D783" s="30"/>
+      <c r="D783" s="44"/>
     </row>
     <row r="784" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D784" s="30"/>
+      <c r="D784" s="44"/>
     </row>
     <row r="785" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D785" s="30"/>
+      <c r="D785" s="44"/>
     </row>
     <row r="786" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D786" s="30"/>
+      <c r="D786" s="44"/>
     </row>
     <row r="787" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D787" s="30"/>
+      <c r="D787" s="44"/>
     </row>
     <row r="788" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D788" s="30"/>
+      <c r="D788" s="44"/>
     </row>
     <row r="789" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D789" s="30"/>
+      <c r="D789" s="44"/>
     </row>
     <row r="790" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D790" s="30"/>
+      <c r="D790" s="44"/>
     </row>
     <row r="791" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D791" s="30"/>
+      <c r="D791" s="44"/>
     </row>
     <row r="792" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D792" s="30"/>
+      <c r="D792" s="44"/>
     </row>
     <row r="793" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D793" s="30"/>
+      <c r="D793" s="44"/>
     </row>
     <row r="794" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D794" s="30"/>
+      <c r="D794" s="44"/>
     </row>
     <row r="795" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D795" s="30"/>
+      <c r="D795" s="44"/>
     </row>
     <row r="796" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D796" s="30"/>
+      <c r="D796" s="44"/>
     </row>
     <row r="797" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D797" s="30"/>
+      <c r="D797" s="44"/>
     </row>
     <row r="798" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D798" s="30"/>
+      <c r="D798" s="44"/>
     </row>
     <row r="799" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D799" s="30"/>
+      <c r="D799" s="44"/>
     </row>
     <row r="800" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D800" s="30"/>
+      <c r="D800" s="44"/>
     </row>
     <row r="801" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D801" s="30"/>
+      <c r="D801" s="44"/>
     </row>
     <row r="802" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D802" s="30"/>
+      <c r="D802" s="44"/>
     </row>
     <row r="803" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D803" s="30"/>
+      <c r="D803" s="44"/>
     </row>
     <row r="804" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D804" s="30"/>
+      <c r="D804" s="44"/>
     </row>
     <row r="805" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D805" s="30"/>
+      <c r="D805" s="44"/>
     </row>
     <row r="806" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D806" s="30"/>
+      <c r="D806" s="44"/>
     </row>
     <row r="807" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D807" s="30"/>
+      <c r="D807" s="44"/>
     </row>
     <row r="808" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D808" s="30"/>
+      <c r="D808" s="44"/>
     </row>
     <row r="809" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D809" s="30"/>
+      <c r="D809" s="44"/>
     </row>
     <row r="810" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D810" s="30"/>
+      <c r="D810" s="44"/>
     </row>
     <row r="811" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D811" s="30"/>
+      <c r="D811" s="44"/>
     </row>
     <row r="812" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D812" s="30"/>
+      <c r="D812" s="44"/>
     </row>
     <row r="813" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D813" s="30"/>
+      <c r="D813" s="44"/>
     </row>
     <row r="814" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D814" s="30"/>
+      <c r="D814" s="44"/>
     </row>
     <row r="815" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D815" s="30"/>
+      <c r="D815" s="44"/>
     </row>
     <row r="816" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D816" s="30"/>
+      <c r="D816" s="44"/>
     </row>
     <row r="817" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D817" s="30"/>
+      <c r="D817" s="44"/>
     </row>
     <row r="818" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D818" s="30"/>
+      <c r="D818" s="44"/>
     </row>
     <row r="819" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D819" s="30"/>
+      <c r="D819" s="44"/>
     </row>
     <row r="820" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D820" s="30"/>
+      <c r="D820" s="44"/>
     </row>
     <row r="821" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D821" s="30"/>
+      <c r="D821" s="44"/>
     </row>
     <row r="822" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D822" s="30"/>
+      <c r="D822" s="44"/>
     </row>
     <row r="823" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D823" s="30"/>
+      <c r="D823" s="44"/>
     </row>
     <row r="824" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D824" s="30"/>
+      <c r="D824" s="44"/>
     </row>
     <row r="825" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D825" s="30"/>
+      <c r="D825" s="44"/>
     </row>
     <row r="826" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D826" s="30"/>
+      <c r="D826" s="44"/>
     </row>
     <row r="827" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D827" s="30"/>
+      <c r="D827" s="44"/>
     </row>
     <row r="828" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D828" s="30"/>
+      <c r="D828" s="44"/>
     </row>
     <row r="829" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D829" s="30"/>
+      <c r="D829" s="44"/>
     </row>
     <row r="830" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D830" s="30"/>
+      <c r="D830" s="44"/>
     </row>
     <row r="831" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D831" s="30"/>
+      <c r="D831" s="44"/>
     </row>
     <row r="832" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D832" s="30"/>
+      <c r="D832" s="44"/>
     </row>
     <row r="833" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D833" s="30"/>
+      <c r="D833" s="44"/>
     </row>
     <row r="834" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D834" s="30"/>
+      <c r="D834" s="44"/>
     </row>
     <row r="835" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D835" s="30"/>
+      <c r="D835" s="44"/>
     </row>
     <row r="836" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D836" s="30"/>
+      <c r="D836" s="44"/>
     </row>
     <row r="837" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D837" s="30"/>
+      <c r="D837" s="44"/>
     </row>
     <row r="838" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D838" s="30"/>
+      <c r="D838" s="44"/>
     </row>
     <row r="839" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D839" s="30"/>
+      <c r="D839" s="44"/>
     </row>
     <row r="840" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D840" s="30"/>
+      <c r="D840" s="44"/>
     </row>
     <row r="841" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D841" s="30"/>
+      <c r="D841" s="44"/>
     </row>
     <row r="842" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D842" s="30"/>
+      <c r="D842" s="44"/>
     </row>
     <row r="843" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D843" s="30"/>
+      <c r="D843" s="44"/>
     </row>
     <row r="844" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D844" s="30"/>
+      <c r="D844" s="44"/>
     </row>
     <row r="845" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D845" s="30"/>
+      <c r="D845" s="44"/>
     </row>
     <row r="846" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D846" s="30"/>
+      <c r="D846" s="44"/>
     </row>
     <row r="847" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D847" s="30"/>
+      <c r="D847" s="44"/>
     </row>
     <row r="848" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D848" s="30"/>
+      <c r="D848" s="44"/>
     </row>
     <row r="849" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D849" s="30"/>
+      <c r="D849" s="44"/>
     </row>
     <row r="850" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D850" s="30"/>
+      <c r="D850" s="44"/>
     </row>
     <row r="851" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D851" s="30"/>
+      <c r="D851" s="44"/>
     </row>
     <row r="852" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D852" s="30"/>
+      <c r="D852" s="44"/>
     </row>
     <row r="853" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D853" s="30"/>
+      <c r="D853" s="44"/>
     </row>
     <row r="854" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D854" s="30"/>
+      <c r="D854" s="44"/>
     </row>
     <row r="855" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D855" s="30"/>
+      <c r="D855" s="44"/>
     </row>
     <row r="856" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D856" s="30"/>
+      <c r="D856" s="44"/>
     </row>
     <row r="857" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D857" s="30"/>
+      <c r="D857" s="44"/>
     </row>
     <row r="858" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D858" s="30"/>
+      <c r="D858" s="44"/>
     </row>
     <row r="859" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D859" s="30"/>
+      <c r="D859" s="44"/>
     </row>
     <row r="860" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D860" s="30"/>
+      <c r="D860" s="44"/>
     </row>
     <row r="861" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D861" s="30"/>
+      <c r="D861" s="44"/>
     </row>
     <row r="862" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D862" s="30"/>
+      <c r="D862" s="44"/>
     </row>
     <row r="863" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D863" s="30"/>
+      <c r="D863" s="44"/>
     </row>
     <row r="864" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D864" s="30"/>
+      <c r="D864" s="44"/>
     </row>
     <row r="865" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D865" s="30"/>
+      <c r="D865" s="44"/>
     </row>
     <row r="866" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D866" s="30"/>
+      <c r="D866" s="44"/>
     </row>
     <row r="867" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D867" s="30"/>
+      <c r="D867" s="44"/>
     </row>
     <row r="868" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D868" s="30"/>
+      <c r="D868" s="44"/>
     </row>
     <row r="869" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D869" s="30"/>
+      <c r="D869" s="44"/>
     </row>
     <row r="870" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D870" s="30"/>
+      <c r="D870" s="44"/>
     </row>
     <row r="871" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D871" s="30"/>
+      <c r="D871" s="44"/>
     </row>
     <row r="872" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D872" s="30"/>
+      <c r="D872" s="44"/>
     </row>
     <row r="873" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D873" s="30"/>
+      <c r="D873" s="44"/>
     </row>
     <row r="874" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D874" s="30"/>
+      <c r="D874" s="44"/>
     </row>
     <row r="875" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D875" s="30"/>
+      <c r="D875" s="44"/>
     </row>
     <row r="876" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D876" s="30"/>
+      <c r="D876" s="44"/>
     </row>
     <row r="877" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D877" s="30"/>
+      <c r="D877" s="44"/>
     </row>
     <row r="878" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D878" s="30"/>
+      <c r="D878" s="44"/>
     </row>
     <row r="879" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D879" s="30"/>
+      <c r="D879" s="44"/>
     </row>
     <row r="880" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D880" s="30"/>
+      <c r="D880" s="44"/>
     </row>
     <row r="881" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D881" s="30"/>
+      <c r="D881" s="44"/>
     </row>
     <row r="882" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D882" s="30"/>
+      <c r="D882" s="44"/>
     </row>
     <row r="883" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D883" s="30"/>
+      <c r="D883" s="44"/>
     </row>
     <row r="884" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D884" s="30"/>
+      <c r="D884" s="44"/>
     </row>
     <row r="885" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D885" s="30"/>
+      <c r="D885" s="44"/>
     </row>
     <row r="886" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D886" s="30"/>
+      <c r="D886" s="44"/>
     </row>
     <row r="887" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D887" s="30"/>
+      <c r="D887" s="44"/>
     </row>
     <row r="888" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D888" s="30"/>
+      <c r="D888" s="44"/>
     </row>
     <row r="889" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D889" s="30"/>
+      <c r="D889" s="44"/>
     </row>
     <row r="890" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D890" s="30"/>
+      <c r="D890" s="44"/>
     </row>
     <row r="891" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D891" s="30"/>
+      <c r="D891" s="44"/>
     </row>
     <row r="892" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D892" s="30"/>
+      <c r="D892" s="44"/>
+    </row>
+    <row r="893" spans="4:4" ht="15.75" customHeight="1">
+      <c r="D893" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3917,13 +3924,13 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D8">
+  <conditionalFormatting sqref="D7:D9">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>G7=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="UNDELIVERED">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="UNDELIVERED">
       <formula>NOT(ISERROR(SEARCH("UNDELIVERED",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
